--- a/misc/dictionaries.xlsx
+++ b/misc/dictionaries.xlsx
@@ -4,33 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="controlDict" sheetId="2" r:id="rId1"/>
     <sheet name="fvSchemes" sheetId="1" r:id="rId2"/>
-    <sheet name="fvSolution" sheetId="3" r:id="rId3"/>
-    <sheet name="p-U coupling" sheetId="4" r:id="rId4"/>
-    <sheet name="unsteady" sheetId="5" r:id="rId5"/>
-    <sheet name="steady" sheetId="6" r:id="rId6"/>
-    <sheet name="discretisationScheme" sheetId="7" r:id="rId7"/>
-    <sheet name="divSchemes" sheetId="8" r:id="rId8"/>
-    <sheet name="gradSchemes" sheetId="9" r:id="rId9"/>
-    <sheet name="snGradSchemes" sheetId="11" r:id="rId10"/>
-    <sheet name="laplacianSchemes" sheetId="12" r:id="rId11"/>
+    <sheet name="fvSolution-old" sheetId="3" r:id="rId3"/>
+    <sheet name="fvSolution" sheetId="14" r:id="rId4"/>
+    <sheet name="p-U coupling" sheetId="4" r:id="rId5"/>
+    <sheet name="unsteady" sheetId="5" r:id="rId6"/>
+    <sheet name="steady" sheetId="6" r:id="rId7"/>
+    <sheet name="discretisationScheme" sheetId="7" r:id="rId8"/>
+    <sheet name="divSchemes" sheetId="8" r:id="rId9"/>
+    <sheet name="gradSchemes" sheetId="9" r:id="rId10"/>
+    <sheet name="snGradSchemes" sheetId="11" r:id="rId11"/>
+    <sheet name="laplacianSchemes" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">divSchemes!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">gradSchemes!$A$1:$C$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">laplacianSchemes!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">snGradSchemes!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">gradSchemes!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">laplacianSchemes!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">snGradSchemes!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="577">
   <si>
     <t>ddtSchemes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1891,6 +1893,227 @@
   </si>
   <si>
     <t>laplacian(thermo:alpha,h)</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBiCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBiCGStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoothSolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A / S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solvers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preconditioners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DILU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoother (Asymm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DILU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DILUGaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonBlockingGaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symGaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoother (Symm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICGaussSeidel</t>
+  </si>
+  <si>
+    <t>DICGaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>DIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussSeidel</t>
+  </si>
+  <si>
+    <t>GaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symGaussSeidel</t>
+  </si>
+  <si>
+    <t>symGaussSeidel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symm Solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMG</t>
+  </si>
+  <si>
+    <t>PBiCGStab</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>smoothSolver</t>
+  </si>
+  <si>
+    <t>FDIC</t>
+  </si>
+  <si>
+    <t>diagonal</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>preconditioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symm Preconditioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symm Smoother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonBlockingGaussSeidel</t>
+  </si>
+  <si>
+    <t>Asymm Solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBiCG</t>
+  </si>
+  <si>
+    <t>Asymm Preconditioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asymm Smoother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DILU</t>
+  </si>
+  <si>
+    <t>DILUGaussSeidel</t>
+  </si>
+  <si>
+    <t>Solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preconditioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2006,7 +2229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2039,6 +2262,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3033,6 +3262,344 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28"/>
+  <sortState ref="A2:C29">
+    <sortCondition descending="1" ref="A2:A29"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3190,11 +3757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3542,6 +4109,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4184,9 +4764,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4474,43 +5056,76 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:8">
       <c r="D33" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:8">
       <c r="D34" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="C35" t="s">
         <v>228</v>
       </c>
       <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="D36" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36" t="s">
+        <v>520</v>
+      </c>
+      <c r="H36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="D37" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="G37" t="s">
+        <v>521</v>
+      </c>
+      <c r="H37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="D38" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="G38" t="s">
+        <v>525</v>
+      </c>
+      <c r="H38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="D39" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="G39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="C40" t="s">
         <v>160</v>
       </c>
@@ -4518,7 +5133,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:8">
       <c r="C41" t="s">
         <v>192</v>
       </c>
@@ -4528,26 +5143,119 @@
       <c r="E41" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="G41" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>196</v>
       </c>
       <c r="D42" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="G42" t="s">
+        <v>529</v>
+      </c>
+      <c r="H42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="D43" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="G43" t="s">
+        <v>532</v>
+      </c>
+      <c r="H43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="D44" t="s">
         <v>199</v>
       </c>
+      <c r="G44" t="s">
+        <v>530</v>
+      </c>
+      <c r="H44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="G45" t="s">
+        <v>531</v>
+      </c>
+      <c r="H45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="G46" t="s">
+        <v>535</v>
+      </c>
+      <c r="H46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="G47" t="s">
+        <v>534</v>
+      </c>
+      <c r="H47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" t="s">
+        <v>537</v>
+      </c>
+      <c r="J50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" t="s">
+        <v>538</v>
+      </c>
+      <c r="J51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" t="s">
+        <v>539</v>
+      </c>
+      <c r="J52" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" t="s">
+        <v>540</v>
+      </c>
+      <c r="J53" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" t="s">
+        <v>541</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="G42:H50">
+    <sortCondition ref="G42"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4555,6 +5263,394 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="8" width="6.7109375" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="F7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" t="s">
+        <v>567</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D12" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="F14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="F15" t="s">
+        <v>558</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F18" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+      <c r="F19" t="s">
+        <v>543</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>549</v>
+      </c>
+      <c r="F21" t="s">
+        <v>568</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="F22" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="F23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="F24" t="s">
+        <v>562</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="F25" t="s">
+        <v>549</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F19:F28">
+    <sortCondition ref="F18"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O34"/>
   <sheetViews>
@@ -4751,20 +5847,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4784,6 +5866,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5109,7 +6205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
@@ -7822,342 +8918,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="10">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C16" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>397</v>
-      </c>
-      <c r="C27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C28"/>
-  <sortState ref="A2:C29">
-    <sortCondition descending="1" ref="A2:A29"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/misc/dictionaries.xlsx
+++ b/misc/dictionaries.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$244</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">gradSchemes!$A$1:$C$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">laplacianSchemes!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">snGradSchemes!$A$1:$C$1</definedName>
@@ -4766,7 +4766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -8909,7 +8909,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A1:C244">
     <sortState ref="A2:C244">
       <sortCondition descending="1" ref="A1"/>
     </sortState>

--- a/misc/dictionaries.xlsx
+++ b/misc/dictionaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="controlDict" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="gradSchemes" sheetId="9" r:id="rId10"/>
     <sheet name="snGradSchemes" sheetId="11" r:id="rId11"/>
     <sheet name="laplacianSchemes" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="solvers" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$244</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="612">
   <si>
     <t>ddtSchemes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2115,6 +2115,111 @@
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>compressible</t>
+  </si>
+  <si>
+    <t>heat-transfer</t>
+  </si>
+  <si>
+    <t>buoyancy</t>
+  </si>
+  <si>
+    <t>combustion</t>
+  </si>
+  <si>
+    <t>multiphase</t>
+  </si>
+  <si>
+    <t>particles</t>
+  </si>
+  <si>
+    <t>dynamic mesh</t>
+  </si>
+  <si>
+    <t>multi-region</t>
+  </si>
+  <si>
+    <t>fvOptions</t>
+  </si>
+  <si>
+    <t>boundaryFoam</t>
+  </si>
+  <si>
+    <t>buoyantPimpleFoam</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>buoyantSimpleFoam</t>
+  </si>
+  <si>
+    <t>chemFoam</t>
+  </si>
+  <si>
+    <t>chtMultiRegionFoam</t>
+  </si>
+  <si>
+    <t>coldEngineFoam</t>
+  </si>
+  <si>
+    <t>engineFoam</t>
+  </si>
+  <si>
+    <t>fireFoam</t>
+  </si>
+  <si>
+    <t>icoFoam</t>
+  </si>
+  <si>
+    <t>interFoam</t>
+  </si>
+  <si>
+    <t>laplacianFoam</t>
+  </si>
+  <si>
+    <t>pimpleFoam</t>
+  </si>
+  <si>
+    <t>pisoFoam</t>
+  </si>
+  <si>
+    <t>potentialFoam</t>
+  </si>
+  <si>
+    <t>reactingFoam</t>
+  </si>
+  <si>
+    <t>reactingParcelFoam</t>
+  </si>
+  <si>
+    <t>rhoCentralFoam</t>
+  </si>
+  <si>
+    <t>rhoPimpleFoam</t>
+  </si>
+  <si>
+    <t>rhoSimpleFoam</t>
+  </si>
+  <si>
+    <t>scalarTransportFoam</t>
+  </si>
+  <si>
+    <t>simpleFoam</t>
+  </si>
+  <si>
+    <t>sprayFoam</t>
+  </si>
+  <si>
+    <t>XiFoam</t>
+  </si>
 </sst>
 </file>
 
@@ -2123,7 +2228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;Total : &quot;0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2206,16 +2311,67 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF374F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2223,13 +2379,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2D4068"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2D4068"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2D4068"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2D4068"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2269,9 +2443,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4116,14 +4312,672 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A3" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A7" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A9" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A11" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A13" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A14" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A15" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A16" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A17" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A18" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A19" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A20" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A21" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A22" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A23" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A24" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-incompressible-boundaryFoam.html"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-heat-transfer-buoyantPimpleFoam.html"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-heat-transfer-buoyantSimpleFoam.html"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-chemFoam.html"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-heat-transfer-chtMultiRegionFoam.html"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-coldEngineFoam.html"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-engineFoam.html"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-fireFoam.html"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-incompressible-icoFoam.html"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-multiphase-interFoam.html"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-basic-laplacianFoam.html"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-incompressible-pimpleFoam.html"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-incompressible-pisoFoam.html"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-basic-potentialFoam.html"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-reactingFoam.html"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-lagrangian-reactingParcelFoam.html"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-compressible-rhoCentralFoam.html"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-compressible-rhoPimpleFoam.html"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-compressible-rhoSimpleFoam.html"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-basic-scalarTransportFoam.html"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-incompressible-simpleFoam.html"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-lagrangian-sprayFoam.html"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://openfoam.com/documentation/guides/latest/doc/guide-applications-solvers-combustion-XiFoam.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -4766,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -5266,9 +6120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/misc/dictionaries.xlsx
+++ b/misc/dictionaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="controlDict" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="snGradSchemes" sheetId="11" r:id="rId11"/>
     <sheet name="laplacianSchemes" sheetId="12" r:id="rId12"/>
     <sheet name="solvers" sheetId="13" r:id="rId13"/>
+    <sheet name="schemes" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$244</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="629">
   <si>
     <t>ddtSchemes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2219,6 +2220,58 @@
   </si>
   <si>
     <t>XiFoam</t>
+  </si>
+  <si>
+    <t>Valid ddt schemes are :</t>
+  </si>
+  <si>
+    <t>Valid grad schemes are :</t>
+  </si>
+  <si>
+    <t>Valid discretisation schemes are :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>CoEuler</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>CrankNicolson</t>
+  </si>
+  <si>
+    <t>Euler</t>
+  </si>
+  <si>
+    <t>SLTS</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>localEuler</t>
+  </si>
+  <si>
+    <t>steadyState</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>leastSquares</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2463,6 +2516,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4981,6 +5037,436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="26.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="D23" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="D25" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="D26" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="D29" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H100"/>
@@ -5620,7 +6106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>

--- a/misc/dictionaries.xlsx
+++ b/misc/dictionaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19200" windowHeight="10530" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="controlDict" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="laplacianSchemes" sheetId="12" r:id="rId12"/>
     <sheet name="solvers" sheetId="13" r:id="rId13"/>
     <sheet name="schemes" sheetId="15" r:id="rId14"/>
+    <sheet name="BCs" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">divSchemes!$A$1:$C$244</definedName>
@@ -4373,7 +4374,7 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5041,7 +5042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5464,6 +5465,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
